--- a/example_data/EMA/label_corrected/duoplavin-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/duoplavin-epar-product-information_en.xlsx
@@ -1405,7 +1405,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>renal || contraindication</t>
+          <t>contraindication || renal</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric || warnings</t>
+          <t>populations - pediatric || populations - adolescent || warnings</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
